--- a/Tiếng Trung/Từ mới.xlsx
+++ b/Tiếng Trung/Từ mới.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246B8F8-20E0-4B7A-A644-F746384DA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2424,7 +2436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2742,2984 +2754,2984 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X278"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:W278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="I252" sqref="I252"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30.6" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I2" s="1" t="s">
+    <row r="2" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I3" s="1" t="s">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I4" s="1" t="s">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I5" s="1" t="s">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I6" s="1" t="s">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I7" s="1" t="s">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I8" s="1" t="s">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I9" s="1" t="s">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I10" s="1" t="s">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I11" s="1" t="s">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I12" s="1" t="s">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I13" s="1" t="s">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I14" s="1" t="s">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I15" s="1" t="s">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I16" s="1" t="s">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I17" s="1" t="s">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I18" s="1" t="s">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I19" s="1" t="s">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I20" s="1" t="s">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I21" s="1" t="s">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I22" s="1" t="s">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I23" s="1" t="s">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I24" s="1" t="s">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I25" s="1" t="s">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I26" s="1" t="s">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I27" s="1" t="s">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I28" s="1" t="s">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I29" s="1" t="s">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I30" s="1" t="s">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I31" s="1" t="s">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I32" s="1" t="s">
+    <row r="32" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I33" s="1" t="s">
+    <row r="33" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I34" s="1" t="s">
+    <row r="34" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I35" s="1" t="s">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I36" s="1" t="s">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I37" s="1" t="s">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I38" s="1" t="s">
+    <row r="38" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I39" s="1" t="s">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I40" s="1" t="s">
+    <row r="40" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I41" s="1" t="s">
+    <row r="41" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I42" s="1" t="s">
+    <row r="42" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I43" s="1" t="s">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I44" s="1" t="s">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I45" s="1" t="s">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I46" s="1" t="s">
+    <row r="46" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I47" s="1" t="s">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="Q47" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I48" s="1" t="s">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="Q48" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I49" s="1" t="s">
+    <row r="49" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I50" s="1" t="s">
+    <row r="50" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I51" s="1" t="s">
+    <row r="51" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="Q51" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I52" s="1" t="s">
+    <row r="52" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I53" s="1" t="s">
+    <row r="53" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="Q53" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I54" s="1" t="s">
+    <row r="54" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I55" s="1" t="s">
+    <row r="55" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I56" s="1" t="s">
+    <row r="56" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I57" s="1" t="s">
+    <row r="57" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I58" s="1" t="s">
+    <row r="58" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I59" s="1" t="s">
+    <row r="59" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I60" s="1" t="s">
+    <row r="60" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I61" s="1" t="s">
+    <row r="61" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="Q61" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I62" s="1" t="s">
+    <row r="62" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="Q62" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I63" s="1" t="s">
+    <row r="63" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R63" s="1" t="s">
+      <c r="Q63" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I64" s="1" t="s">
+    <row r="64" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="Q64" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I65" s="1" t="s">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="Q65" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I66" s="1" t="s">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I67" s="1" t="s">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="Q67" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I68" s="1" t="s">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="R68" s="1" t="s">
+      <c r="Q68" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I69" s="1" t="s">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R69" s="1" t="s">
+      <c r="Q69" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I70" s="1" t="s">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="R70" s="1" t="s">
+      <c r="Q70" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I71" s="1" t="s">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I72" s="1" t="s">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="R72" s="1" t="s">
+      <c r="Q72" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I73" s="1" t="s">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="R73" s="1" t="s">
+      <c r="Q73" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I74" s="1" t="s">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="R74" s="1" t="s">
+      <c r="Q74" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I75" s="1" t="s">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="R75" s="1" t="s">
+      <c r="Q75" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I76" s="1" t="s">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="R76" s="1" t="s">
+      <c r="Q76" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="X76" s="1" t="s">
+      <c r="W76" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I77" s="1" t="s">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="R77" s="1" t="s">
+      <c r="Q77" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I78" s="1" t="s">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="Q78" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="I79" s="1" t="s">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="R79" s="1" t="s">
+      <c r="Q79" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="81" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I81" s="1" t="s">
+    <row r="81" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R81" s="1" t="s">
+      <c r="Q81" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I82" s="1" t="s">
+    <row r="82" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="Q82" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I83" s="1" t="s">
+    <row r="83" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="R83" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I84" s="1" t="s">
+    <row r="84" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="R84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I85" s="1" t="s">
+    <row r="85" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="Q85" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I86" s="1" t="s">
+    <row r="86" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="R86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I87" s="1" t="s">
+    <row r="87" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="R87" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I88" s="1" t="s">
+    <row r="88" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="R88" s="1" t="s">
+      <c r="Q88" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I89" s="1" t="s">
+    <row r="89" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="R89" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="90" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I90" s="1" t="s">
+    <row r="90" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="R90" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I91" s="1" t="s">
+    <row r="91" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="R91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I92" s="1" t="s">
+    <row r="92" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="R92" s="1" t="s">
+      <c r="Q92" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I93" s="1" t="s">
+    <row r="93" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="R93" s="1" t="s">
+      <c r="Q93" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I94" s="1" t="s">
+    <row r="94" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="R94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I95" s="1" t="s">
+    <row r="95" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="R95" s="1" t="s">
+      <c r="Q95" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I96" s="1" t="s">
+    <row r="96" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R96" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="97" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I97" s="1" t="s">
+    <row r="97" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="R97" s="1" t="s">
+      <c r="Q97" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I98" s="1" t="s">
+    <row r="98" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="R98" s="1" t="s">
+      <c r="Q98" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="99" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I99" s="1" t="s">
+    <row r="99" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="R99" s="1" t="s">
+      <c r="Q99" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I100" s="1" t="s">
+    <row r="100" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="R100" s="1" t="s">
+      <c r="Q100" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I101" s="1" t="s">
+    <row r="101" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="R101" s="1" t="s">
+      <c r="Q101" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I102" s="1" t="s">
+    <row r="102" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="R102" s="1" t="s">
+      <c r="Q102" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I103" s="1" t="s">
+    <row r="103" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="R103" s="1" t="s">
+      <c r="Q103" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="104" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I104" s="1" t="s">
+    <row r="104" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D104" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="R104" s="1" t="s">
+      <c r="Q104" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="105" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I105" s="1" t="s">
+    <row r="105" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D105" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="R105" s="1" t="s">
+      <c r="Q105" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="106" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I106" s="1" t="s">
+    <row r="106" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D106" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="R106" s="1" t="s">
+      <c r="Q106" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I107" s="1" t="s">
+    <row r="107" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R107" s="1" t="s">
+      <c r="Q107" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="108" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I108" s="1" t="s">
+    <row r="108" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D108" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="R108" s="1" t="s">
+      <c r="Q108" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I109" s="1" t="s">
+    <row r="109" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D109" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="R109" s="1" t="s">
+      <c r="Q109" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I110" s="1" t="s">
+    <row r="110" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D110" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="R110" s="1" t="s">
+      <c r="Q110" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="111" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I111" s="1" t="s">
+    <row r="111" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D111" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="R111" s="1" t="s">
+      <c r="Q111" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I112" s="1" t="s">
+    <row r="112" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D112" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="L112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="R112" s="1" t="s">
+      <c r="Q112" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I113" s="1" t="s">
+    <row r="113" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D113" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="R113" s="1" t="s">
+      <c r="Q113" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="114" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I114" s="1" t="s">
+    <row r="114" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D114" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="R114" s="1" t="s">
+      <c r="Q114" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I115" s="1" t="s">
+    <row r="115" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="R115" s="1" t="s">
+      <c r="Q115" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="116" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I116" s="1" t="s">
+    <row r="116" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="R116" s="1" t="s">
+      <c r="Q116" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="117" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I117" s="1" t="s">
+    <row r="117" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="R117" s="1" t="s">
+      <c r="Q117" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I118" s="1" t="s">
+    <row r="118" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="R118" s="1" t="s">
+      <c r="Q118" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I119" s="1" t="s">
+    <row r="119" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="R119" s="1" t="s">
+      <c r="Q119" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="120" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I120" s="1" t="s">
+    <row r="120" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L120" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="R120" s="1" t="s">
+      <c r="Q120" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="121" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I121" s="1" t="s">
+    <row r="121" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D121" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L121" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="R121" s="1" t="s">
+      <c r="Q121" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I122" s="1" t="s">
+    <row r="122" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D122" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="R122" s="1" t="s">
+      <c r="Q122" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I123" s="1" t="s">
+    <row r="123" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D123" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R123" s="1" t="s">
+      <c r="Q123" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="124" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I124" s="1" t="s">
+    <row r="124" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L124" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R124" s="1" t="s">
+      <c r="Q124" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="125" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I125" s="1" t="s">
+    <row r="125" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D125" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R125" s="1" t="s">
+      <c r="Q125" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I126" s="1" t="s">
+    <row r="126" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D126" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="R126" s="1" t="s">
+      <c r="Q126" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I127" s="1" t="s">
+    <row r="127" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D127" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="R127" s="1" t="s">
+      <c r="Q127" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="128" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I128" s="1" t="s">
+    <row r="128" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D128" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="R128" s="1" t="s">
+      <c r="Q128" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I129" s="1" t="s">
+    <row r="129" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D129" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="R129" s="1" t="s">
+      <c r="Q129" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="130" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I130" s="1" t="s">
+    <row r="130" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D130" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="R130" s="1" t="s">
+      <c r="Q130" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="131" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I131" s="1" t="s">
+    <row r="131" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D131" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="R131" s="1" t="s">
+      <c r="Q131" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I132" s="1" t="s">
+    <row r="132" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D132" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="L132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="R132" s="1" t="s">
+      <c r="Q132" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="133" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I133" s="1" t="s">
+    <row r="133" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D133" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="L133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="R133" s="1" t="s">
+      <c r="Q133" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I134" s="1" t="s">
+    <row r="134" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D134" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="R134" s="1" t="s">
+      <c r="Q134" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I135" s="1" t="s">
+    <row r="135" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D135" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="R135" s="1" t="s">
+      <c r="Q135" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I136" s="1" t="s">
+    <row r="136" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="R136" s="1" t="s">
+      <c r="Q136" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I137" s="1" t="s">
+    <row r="137" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D137" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="R137" s="1" t="s">
+      <c r="Q137" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I138" s="1" t="s">
+    <row r="138" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D138" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L138" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="R138" s="1" t="s">
+      <c r="Q138" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I139" s="1" t="s">
+    <row r="139" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D139" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="R139" s="1" t="s">
+      <c r="Q139" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I140" s="1" t="s">
+    <row r="140" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D140" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="R140" s="1" t="s">
+      <c r="Q140" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I141" s="1" t="s">
+    <row r="141" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D141" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L141" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="R141" s="1" t="s">
+      <c r="Q141" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="142" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I142" s="1" t="s">
+    <row r="142" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D142" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="L142" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="R142" s="1" t="s">
+      <c r="Q142" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="143" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I143" s="1" t="s">
+    <row r="143" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D143" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="L143" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="R143" s="1" t="s">
+      <c r="Q143" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="144" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I144" s="1" t="s">
+    <row r="144" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D144" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="R144" s="1" t="s">
+      <c r="Q144" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="145" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I145" s="1" t="s">
+    <row r="145" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D145" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L145" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="R145" s="1" t="s">
+      <c r="Q145" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="146" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I146" s="1" t="s">
+    <row r="146" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D146" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="L146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="R146" s="1" t="s">
+      <c r="Q146" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="147" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I147" s="1" t="s">
+    <row r="147" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D147" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="L147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="R147" s="1" t="s">
+      <c r="Q147" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="148" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I148" s="1" t="s">
+    <row r="148" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D148" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="R148" s="1" t="s">
+      <c r="Q148" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="149" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I149" s="1" t="s">
+    <row r="149" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D149" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="L149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="R149" s="1" t="s">
+      <c r="Q149" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="150" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I150" s="1" t="s">
+    <row r="150" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D150" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="L150" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="R150" s="1" t="s">
+      <c r="Q150" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="151" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I151" s="1" t="s">
+    <row r="151" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D151" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="L151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="R151" s="1" t="s">
+      <c r="Q151" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="152" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I152" s="1" t="s">
+    <row r="152" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D152" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="L152" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="R152" s="1" t="s">
+      <c r="Q152" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="153" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I153" s="1" t="s">
+    <row r="153" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D153" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="L153" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="R153" s="1" t="s">
+      <c r="Q153" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="154" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I154" s="1" t="s">
+    <row r="154" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D154" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="L154" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="R154" s="1" t="s">
+      <c r="Q154" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="155" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I155" s="1" t="s">
+    <row r="155" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D155" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="R155" s="1" t="s">
+      <c r="Q155" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="156" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I156" s="1" t="s">
+    <row r="156" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D156" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="R156" s="1" t="s">
+      <c r="Q156" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I157" s="1" t="s">
+    <row r="157" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D157" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="L157" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R157" s="1" t="s">
+      <c r="Q157" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="158" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I158" s="1" t="s">
+    <row r="158" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D158" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="L158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="R158" s="1" t="s">
+      <c r="Q158" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="159" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I159" s="1" t="s">
+    <row r="159" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D159" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="L159" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="R159" s="1" t="s">
+      <c r="Q159" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="160" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I160" s="1" t="s">
+    <row r="160" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D160" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="L160" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="R160" s="1" t="s">
+      <c r="Q160" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I161" s="1" t="s">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D161" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="L161" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="R161" s="1" t="s">
+      <c r="Q161" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I162" s="1" t="s">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D162" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="L162" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="R162" s="1" t="s">
+      <c r="Q162" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I163" s="1" t="s">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D163" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="L163" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="R163" s="1" t="s">
+      <c r="Q163" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I164" s="1" t="s">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L164" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="R164" s="1" t="s">
+      <c r="Q164" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I165" s="1" t="s">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D165" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="L165" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="R165" s="1" t="s">
+      <c r="Q165" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I166" s="1" t="s">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D166" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="L166" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="R166" s="1" t="s">
+      <c r="Q166" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I167" s="1" t="s">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D167" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="L167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="R167" s="1" t="s">
+      <c r="Q167" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I168" s="1" t="s">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D168" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="L168" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="R168" s="1" t="s">
+      <c r="Q168" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I169" s="1" t="s">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D169" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="L169" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="R169" s="1" t="s">
+      <c r="Q169" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I170" s="1" t="s">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D170" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="L170" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="R170" s="1" t="s">
+      <c r="Q170" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I172" s="1" t="s">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D172" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="R172" s="1" t="s">
+      <c r="Q172" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I173" s="1" t="s">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D173" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="R173" s="1" t="s">
+      <c r="Q173" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I174" s="1" t="s">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D174" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="R174" s="1" t="s">
+      <c r="Q174" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I175" s="1" t="s">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D175" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="R175" s="1" t="s">
+      <c r="Q175" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I176" s="1" t="s">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D176" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="G176" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="R176" s="1" t="s">
+      <c r="Q176" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I177" s="1" t="s">
+    <row r="177" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D177" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="R177" s="1" t="s">
+      <c r="Q177" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="178" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I178" s="1" t="s">
+    <row r="178" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D178" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="R178" s="1" t="s">
+      <c r="Q178" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="179" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I179" s="1" t="s">
+    <row r="179" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D179" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="R179" s="1" t="s">
+      <c r="Q179" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="180" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I180" s="1" t="s">
+    <row r="180" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D180" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="R180" s="1" t="s">
+      <c r="Q180" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="181" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I181" s="1" t="s">
+    <row r="181" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D181" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="R181" s="1" t="s">
+      <c r="Q181" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="182" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I182" s="1" t="s">
+    <row r="182" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D182" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="R182" s="1" t="s">
+      <c r="Q182" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="183" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I183" s="1" t="s">
+    <row r="183" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D183" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="R183" s="1" t="s">
+      <c r="Q183" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="184" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I184" s="1" t="s">
+    <row r="184" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D184" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="R184" s="1" t="s">
+      <c r="Q184" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="185" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I185" s="1" t="s">
+    <row r="185" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D185" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="R185" s="1" t="s">
+      <c r="Q185" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I186" s="1" t="s">
+    <row r="186" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D186" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="R186" s="1" t="s">
+      <c r="Q186" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="187" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I187" s="1" t="s">
+    <row r="187" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D187" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="G187" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="R187" s="1" t="s">
+      <c r="Q187" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="188" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I188" s="1" t="s">
+    <row r="188" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D188" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="R188" s="1" t="s">
+      <c r="Q188" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="189" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I189" s="1" t="s">
+    <row r="189" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D189" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="R189" s="1" t="s">
+      <c r="Q189" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I190" s="1" t="s">
+    <row r="190" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D190" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="R190" s="1" t="s">
+      <c r="Q190" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I191" s="1" t="s">
+    <row r="191" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D191" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="R191" s="1" t="s">
+      <c r="Q191" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="192" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I192" s="1" t="s">
+    <row r="192" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D192" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="R192" s="1" t="s">
+      <c r="Q192" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="193" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I193" s="1" t="s">
+    <row r="193" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D193" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="R193" s="1" t="s">
+      <c r="Q193" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="194" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I194" s="1" t="s">
+    <row r="194" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D194" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="R194" s="1" t="s">
+      <c r="Q194" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="195" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I195" s="1" t="s">
+    <row r="195" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D195" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="R195" s="1" t="s">
+      <c r="Q195" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="196" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I196" s="1" t="s">
+    <row r="196" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D196" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="R196" s="1" t="s">
+      <c r="Q196" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="197" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I197" s="1" t="s">
+    <row r="197" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D197" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="R197" s="1" t="s">
+      <c r="Q197" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="198" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I198" s="1" t="s">
+    <row r="198" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D198" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="R198" s="1" t="s">
+      <c r="Q198" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="199" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I199" s="1" t="s">
+    <row r="199" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D199" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="R199" s="1" t="s">
+      <c r="Q199" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="200" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I200" s="1" t="s">
+    <row r="200" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D200" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="R200" s="1" t="s">
+      <c r="Q200" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="201" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I201" s="1" t="s">
+    <row r="201" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D201" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="R201" s="1" t="s">
+      <c r="Q201" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="202" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I202" s="1" t="s">
+    <row r="202" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D202" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="R202" s="1" t="s">
+      <c r="Q202" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="203" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I203" s="1" t="s">
+    <row r="203" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D203" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="R203" s="1" t="s">
+      <c r="Q203" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I204" s="1" t="s">
+    <row r="204" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D204" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="R204" s="1" t="s">
+      <c r="Q204" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="205" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I205" s="1" t="s">
+    <row r="205" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D205" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="G205" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="R205" s="1" t="s">
+      <c r="Q205" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="206" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I206" s="1" t="s">
+    <row r="206" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D206" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="G206" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="R206" s="1" t="s">
+      <c r="Q206" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I207" s="1" t="s">
+    <row r="207" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D207" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="G207" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="R207" s="1" t="s">
+      <c r="Q207" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="208" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I208" s="1" t="s">
+    <row r="208" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D208" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="R208" s="1" t="s">
+      <c r="Q208" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="209" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I209" s="1" t="s">
+    <row r="209" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D209" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="G209" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="R209" s="1" t="s">
+      <c r="Q209" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="210" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I210" s="1" t="s">
+    <row r="210" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D210" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="R210" s="1" t="s">
+      <c r="Q210" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="211" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I211" s="1" t="s">
+    <row r="211" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D211" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="G211" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="R211" s="1" t="s">
+      <c r="Q211" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="212" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I212" s="1" t="s">
+    <row r="212" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D212" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="G212" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="R212" s="1" t="s">
+      <c r="Q212" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="213" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I213" s="1" t="s">
+    <row r="213" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D213" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="G213" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="R213" s="1" t="s">
+      <c r="Q213" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="214" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I214" s="1" t="s">
+    <row r="214" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D214" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="R214" s="1" t="s">
+      <c r="Q214" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="215" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I215" s="1" t="s">
+    <row r="215" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D215" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="G215" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="R215" s="1" t="s">
+      <c r="Q215" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="216" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I216" s="1" t="s">
+    <row r="216" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D216" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="G216" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="R216" s="1" t="s">
+      <c r="Q216" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="217" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I217" s="1" t="s">
+    <row r="217" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D217" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="R217" s="1" t="s">
+      <c r="Q217" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="218" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I218" s="1" t="s">
+    <row r="218" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D218" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="R218" s="1" t="s">
+      <c r="Q218" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="219" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I219" s="1" t="s">
+    <row r="219" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D219" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="G219" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="R219" s="1" t="s">
+      <c r="Q219" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="220" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I220" s="1" t="s">
+    <row r="220" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D220" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="G220" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="R220" s="1" t="s">
+      <c r="Q220" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="221" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I221" s="1" t="s">
+    <row r="221" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D221" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="R221" s="1" t="s">
+      <c r="Q221" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="222" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I222" s="1" t="s">
+    <row r="222" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D222" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="G222" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="R222" s="1" t="s">
+      <c r="Q222" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="223" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I223" s="1" t="s">
+    <row r="223" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D223" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="G223" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="R223" s="1" t="s">
+      <c r="Q223" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="224" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I224" s="1" t="s">
+    <row r="224" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D224" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R224" s="1" t="s">
+      <c r="Q224" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="225" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I225" s="1" t="s">
+    <row r="225" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D225" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="G225" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="R225" s="1" t="s">
+      <c r="Q225" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="226" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I226" s="1" t="s">
+    <row r="226" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D226" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="G226" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="R226" s="1" t="s">
+      <c r="Q226" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="227" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I227" s="1" t="s">
+    <row r="227" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D227" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="G227" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="R227" s="1" t="s">
+      <c r="Q227" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="228" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I228" s="1" t="s">
+    <row r="228" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D228" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="G228" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="R228" s="1" t="s">
+      <c r="Q228" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="229" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I229" s="1" t="s">
+    <row r="229" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D229" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="R229" s="1" t="s">
+      <c r="Q229" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="230" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I230" s="1" t="s">
+    <row r="230" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D230" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="G230" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="R230" s="1" t="s">
+      <c r="Q230" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="231" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I231" s="1" t="s">
+    <row r="231" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D231" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="G231" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="R231" s="1" t="s">
+      <c r="Q231" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="232" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I232" s="1" t="s">
+    <row r="232" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D232" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="G232" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="R232" s="1" t="s">
+      <c r="Q232" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I233" s="1" t="s">
+    <row r="233" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D233" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="G233" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="R233" s="1" t="s">
+      <c r="Q233" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="234" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I234" s="1" t="s">
+    <row r="234" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D234" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="G234" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="R234" s="1" t="s">
+      <c r="Q234" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="235" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I235" s="1" t="s">
+    <row r="235" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D235" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="R235" s="1" t="s">
+      <c r="Q235" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="236" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I236" s="1" t="s">
+    <row r="236" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D236" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="G236" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="R236" s="1" t="s">
+      <c r="Q236" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="237" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I237" s="1" t="s">
+    <row r="237" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D237" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="G237" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="R237" s="1" t="s">
+      <c r="Q237" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="238" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I238" s="1" t="s">
+    <row r="238" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D238" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="R238" s="1" t="s">
+      <c r="Q238" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="239" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I239" s="1" t="s">
+    <row r="239" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D239" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="G239" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="R239" s="1" t="s">
+      <c r="Q239" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="240" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I240" s="1" t="s">
+    <row r="240" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D240" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="G240" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="R240" s="1" t="s">
+      <c r="Q240" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="241" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I241" s="1" t="s">
+    <row r="241" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D241" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="G241" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="R241" s="1" t="s">
+      <c r="Q241" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="242" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I242" s="1" t="s">
+    <row r="242" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D242" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="R242" s="1" t="s">
+      <c r="Q242" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="243" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I243" s="1" t="s">
+    <row r="243" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D243" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="G243" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="R243" s="1" t="s">
+      <c r="Q243" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I244" s="1" t="s">
+    <row r="244" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D244" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="G244" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="R244" s="1" t="s">
+      <c r="Q244" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="245" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I245" s="1" t="s">
+    <row r="245" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D245" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="G245" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="R245" s="1" t="s">
+      <c r="Q245" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="246" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I246" s="1" t="s">
+    <row r="246" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D246" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="G246" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="R246" s="1" t="s">
+      <c r="Q246" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="247" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I247" s="1" t="s">
+    <row r="247" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D247" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="G247" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="R247" s="1" t="s">
+      <c r="Q247" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="248" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I248" s="1" t="s">
+    <row r="248" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D248" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="G248" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="R248" s="1" t="s">
+      <c r="Q248" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="249" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I249" s="1" t="s">
+    <row r="249" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D249" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="G249" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="R249" s="1" t="s">
+      <c r="Q249" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="250" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I250" s="1" t="s">
+    <row r="250" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D250" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="G250" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="R250" s="1" t="s">
+      <c r="Q250" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="251" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I251" s="1" t="s">
+    <row r="251" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D251" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="G251" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="R251" s="1" t="s">
+      <c r="Q251" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="252" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I252" s="1" t="s">
+    <row r="252" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D252" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="G252" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="R252" s="1" t="s">
+      <c r="Q252" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I253" s="1" t="s">
+    <row r="253" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D253" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="G253" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="R253" s="1" t="s">
+      <c r="Q253" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="254" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I254" s="1" t="s">
+    <row r="254" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D254" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="G254" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="R254" s="1" t="s">
+      <c r="Q254" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="255" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I255" s="1" t="s">
+    <row r="255" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D255" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="G255" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="R255" s="1" t="s">
+      <c r="Q255" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="256" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I256" s="1" t="s">
+    <row r="256" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D256" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="G256" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="R256" s="1" t="s">
+      <c r="Q256" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="257" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I257" s="1" t="s">
+    <row r="257" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D257" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="G257" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="R257" s="1" t="s">
+      <c r="Q257" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="258" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I258" s="1" t="s">
+    <row r="258" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D258" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="G258" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="R258" s="1" t="s">
+      <c r="Q258" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="259" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I259" s="1" t="s">
+    <row r="259" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D259" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="G259" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="R259" s="1" t="s">
+      <c r="Q259" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="260" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I260" s="1" t="s">
+    <row r="260" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D260" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="G260" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="R260" s="1" t="s">
+      <c r="Q260" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="261" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I261" s="1" t="s">
+    <row r="261" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D261" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="G261" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="R261" s="1" t="s">
+      <c r="Q261" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="262" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I262" s="1" t="s">
+    <row r="262" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D262" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="L262" s="1" t="s">
+      <c r="G262" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="R262" s="1" t="s">
+      <c r="Q262" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="263" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I263" s="1" t="s">
+    <row r="263" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D263" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="L263" s="1" t="s">
+      <c r="G263" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="R263" s="1" t="s">
+      <c r="Q263" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="264" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I264" s="1" t="s">
+    <row r="264" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D264" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="L264" s="1" t="s">
+      <c r="G264" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="R264" s="1" t="s">
+      <c r="Q264" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="265" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I265" s="1" t="s">
+    <row r="265" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D265" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="L265" s="1" t="s">
+      <c r="G265" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="R265" s="1" t="s">
+      <c r="Q265" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="266" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I266" s="1" t="s">
+    <row r="266" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D266" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="L266" s="1" t="s">
+      <c r="G266" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="R266" s="1" t="s">
+      <c r="Q266" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="267" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I267" s="1" t="s">
+    <row r="267" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D267" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="L267" s="1" t="s">
+      <c r="G267" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="R267" s="1" t="s">
+      <c r="Q267" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="268" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I268" s="1" t="s">
+    <row r="268" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D268" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="L268" s="1" t="s">
+      <c r="G268" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="R268" s="1" t="s">
+      <c r="Q268" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="269" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I269" s="1" t="s">
+    <row r="269" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D269" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="L269" s="1" t="s">
+      <c r="G269" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="R269" s="1" t="s">
+      <c r="Q269" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="270" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I270" s="1" t="s">
+    <row r="270" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D270" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="L270" s="1" t="s">
+      <c r="G270" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="R270" s="1" t="s">
+      <c r="Q270" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="271" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I271" s="1" t="s">
+    <row r="271" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D271" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="L271" s="1" t="s">
+      <c r="G271" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="R271" s="1" t="s">
+      <c r="Q271" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="272" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I272" s="1" t="s">
+    <row r="272" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D272" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="L272" s="1" t="s">
+      <c r="G272" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="R272" s="1" t="s">
+      <c r="Q272" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="273" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I273" s="1" t="s">
+    <row r="273" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D273" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="L273" s="1" t="s">
+      <c r="G273" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="R273" s="1" t="s">
+      <c r="Q273" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="274" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I274" s="1" t="s">
+    <row r="274" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D274" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="L274" s="1" t="s">
+      <c r="G274" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="R274" s="1" t="s">
+      <c r="Q274" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="275" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I275" s="1" t="s">
+    <row r="275" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D275" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="L275" s="1" t="s">
+      <c r="G275" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="R275" s="1" t="s">
+      <c r="Q275" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="276" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I276" s="1" t="s">
+    <row r="276" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D276" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="L276" s="1" t="s">
+      <c r="G276" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="R276" s="1" t="s">
+      <c r="Q276" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="277" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I277" s="1" t="s">
+    <row r="277" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D277" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="L277" s="1" t="s">
+      <c r="G277" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="R277" s="1" t="s">
+      <c r="Q277" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="278" spans="9:18" x14ac:dyDescent="0.45">
-      <c r="I278" s="1" t="s">
+    <row r="278" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D278" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="L278" s="1" t="s">
+      <c r="G278" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="R278" s="1" t="s">
+      <c r="Q278" s="1" t="s">
         <v>798</v>
       </c>
     </row>

--- a/Tiếng Trung/Từ mới.xlsx
+++ b/Tiếng Trung/Từ mới.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246B8F8-20E0-4B7A-A644-F746384DA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C9F9C-D7FC-415F-A6D5-2FE39D5CE556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -453,9 +454,6 @@
     <t>差不多</t>
   </si>
   <si>
-    <t xml:space="preserve">gần như, gần đủ </t>
-  </si>
-  <si>
     <t>拒绝</t>
   </si>
   <si>
@@ -2431,6 +2429,9 @@
   </si>
   <si>
     <t>day du?, tron ven., thoai? Mai'</t>
+  </si>
+  <si>
+    <t>gần như, gần đủ, tương đối</t>
   </si>
 </sst>
 </file>
@@ -2757,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q146" sqref="Q146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30.6" x14ac:dyDescent="0.55000000000000004"/>
@@ -2848,7 +2849,7 @@
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.55000000000000004">
@@ -3080,7 +3081,7 @@
         <v>81</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.55000000000000004">
@@ -3305,2434 +3306,2434 @@
         <v>139</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>140</v>
+        <v>799</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="Q61" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="Q62" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="Q63" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="Q64" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="Q65" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="Q67" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="Q68" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="Q69" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="Q70" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="Q73" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="Q74" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D75" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="Q76" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="W76" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="Q77" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="Q78" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D79" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="Q81" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="Q82" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D83" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="Q85" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="Q88" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q91" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="Q92" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D93" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="Q93" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="Q95" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="Q97" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="Q98" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="Q99" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="Q100" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D101" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="Q101" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="Q102" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D103" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q103" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="Q104" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D105" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q105" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D106" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="Q106" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D107" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="Q107" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D108" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="Q108" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D109" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="Q109" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D110" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="Q110" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D111" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="Q111" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D112" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="Q112" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="113" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D113" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="Q113" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="114" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D114" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="Q114" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="115" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D115" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="Q115" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="Q115" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="116" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D116" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="Q116" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="Q116" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="117" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D117" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="Q117" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="Q117" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="118" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="Q118" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="Q118" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="119" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D119" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="Q119" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="120" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D120" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="Q120" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="Q120" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="121" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D121" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="Q121" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="Q121" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="122" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D122" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="Q122" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="123" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D123" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="Q123" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="Q124" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="Q124" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="125" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D125" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="Q125" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="126" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D126" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="Q126" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="127" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D127" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="Q127" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="Q127" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="128" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D128" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q128" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="Q128" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="129" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D129" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="Q129" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="130" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D130" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="Q130" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="131" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D131" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="Q131" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="Q131" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="132" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D132" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="Q132" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="Q132" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="133" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D133" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="Q133" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="Q133" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="134" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D134" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="Q134" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="135" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D135" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="Q135" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="136" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D136" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="Q136" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="Q136" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="137" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D137" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="Q137" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="138" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D138" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="Q138" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="Q138" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="139" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D139" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="Q139" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="Q139" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="140" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D140" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="Q140" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="Q140" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="141" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D141" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="Q141" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="Q141" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="142" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D142" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="Q142" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="Q142" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="143" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D143" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="Q143" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="Q143" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="144" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D144" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q144" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="Q144" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="145" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D145" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="Q145" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="Q145" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="146" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D146" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="Q146" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="Q146" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="147" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D147" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="Q147" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="Q147" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="148" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D148" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q148" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="Q148" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="149" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D149" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="Q149" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="Q149" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="150" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D150" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="Q150" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="Q150" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="151" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D151" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="Q151" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="Q151" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="152" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D152" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="Q152" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="Q152" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="153" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D153" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="Q153" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="Q153" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="154" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D154" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="Q154" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="Q154" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="155" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D155" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="Q155" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="Q155" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="156" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D156" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q156" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="Q156" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="157" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D157" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="Q157" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="Q157" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="158" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D158" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="Q158" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="Q158" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="159" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D159" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="Q159" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="Q159" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="160" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D160" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="Q160" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D161" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="Q161" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="Q161" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D162" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="Q162" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="Q162" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D163" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="Q163" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="Q163" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D164" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="Q164" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="Q164" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D165" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="Q165" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="Q165" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q166" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q166" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D167" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="Q167" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="Q167" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D168" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="Q168" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="Q168" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D169" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="Q169" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="Q169" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D170" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q170" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q170" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D172" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="Q172" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="Q172" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D173" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="Q173" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="Q173" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D174" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="Q174" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="Q174" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D175" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q175" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="Q175" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D176" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="Q176" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D177" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="Q177" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="Q177" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="178" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D178" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="Q178" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="Q178" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="179" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D179" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="Q179" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="Q179" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="180" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D180" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="Q180" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="Q180" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="181" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D181" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="Q181" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="Q181" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="182" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D182" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="Q182" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="Q182" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="183" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D183" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="Q183" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="Q183" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="184" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D184" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="Q184" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="Q184" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="185" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D185" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="Q185" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="Q185" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="186" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D186" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="Q186" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="Q186" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="187" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D187" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="Q187" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="Q187" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="188" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D188" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="Q188" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="Q188" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="189" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D189" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="Q189" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="Q189" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="190" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D190" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="Q190" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="Q190" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="191" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D191" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="Q191" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="Q191" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="192" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D192" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="Q192" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="Q192" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="193" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D193" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="Q193" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="Q193" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="194" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D194" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="Q194" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="Q194" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="195" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D195" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="Q195" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="Q195" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="196" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D196" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="Q196" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="Q196" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="197" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D197" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="Q197" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="Q197" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="198" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D198" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q198" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="Q198" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="199" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D199" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="Q199" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D200" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="Q200" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="Q200" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="201" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D201" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="Q201" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="Q201" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="202" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D202" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="Q202" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="Q202" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="203" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D203" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="Q203" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="Q203" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="204" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D204" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="Q204" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="Q204" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="205" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D205" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="Q205" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="Q205" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="206" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D206" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G206" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q206" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="Q206" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="207" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D207" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="Q207" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="Q207" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="208" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D208" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q208" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="Q208" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="209" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D209" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="Q209" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="Q209" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="210" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D210" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="Q210" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="Q210" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="211" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D211" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="Q211" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="Q211" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="212" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D212" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="Q212" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="Q212" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="213" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D213" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="Q213" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="Q213" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="214" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D214" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="Q214" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="Q214" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="215" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D215" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="Q215" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="Q215" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="216" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D216" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G216" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="Q216" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="Q216" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="217" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D217" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q217" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="Q217" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="218" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D218" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G218" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="Q218" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="Q218" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="219" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D219" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="Q219" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="Q219" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="220" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D220" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="Q220" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="Q220" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="221" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D221" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G221" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="Q221" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="Q221" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="222" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D222" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="Q222" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="Q222" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="223" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D223" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G223" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="Q223" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="Q223" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="224" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D224" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="Q224" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="Q224" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="225" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D225" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="Q225" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="Q225" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="226" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D226" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G226" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="Q226" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="Q226" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="227" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D227" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q227" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q227" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="228" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D228" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G228" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="Q228" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="Q228" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="229" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D229" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="Q229" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="Q229" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="230" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D230" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G230" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="Q230" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="Q230" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="231" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D231" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G231" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="Q231" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="232" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D232" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="Q232" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="233" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D233" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="Q233" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="Q233" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="234" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D234" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="Q234" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="Q234" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="235" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D235" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="G235" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="Q235" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="Q235" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="236" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D236" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G236" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="Q236" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="Q236" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="237" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D237" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="G237" s="1" t="s">
-        <v>675</v>
-      </c>
       <c r="Q237" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="238" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D238" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="Q238" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="Q238" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="239" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D239" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G239" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="Q239" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="Q239" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="240" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D240" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G240" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="Q240" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="Q240" s="1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="241" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D241" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G241" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G241" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="Q241" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="242" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D242" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G242" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="G242" s="1" t="s">
+      <c r="Q242" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="Q242" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="243" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D243" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G243" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="Q243" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="Q243" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="244" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D244" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="Q244" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="Q244" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="245" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D245" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="Q245" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="Q245" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="246" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D246" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G246" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="Q246" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="Q246" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="247" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D247" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="Q247" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="Q247" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="248" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D248" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="G248" s="1" t="s">
+      <c r="Q248" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="Q248" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="249" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D249" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="Q249" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="Q249" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="250" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D250" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G250" s="1" t="s">
+      <c r="Q250" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="Q250" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="251" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D251" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="Q251" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="Q251" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="252" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D252" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="Q252" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="Q252" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="253" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D253" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q253" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q253" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="254" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D254" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="Q254" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="Q254" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="255" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D255" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G255" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="Q255" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="Q255" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="256" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D256" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="Q256" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="Q256" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="257" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D257" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="G257" s="1" t="s">
+      <c r="Q257" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="Q257" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="258" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D258" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G258" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="Q258" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="Q258" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="259" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D259" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="Q259" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="Q259" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="260" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D260" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G260" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="Q260" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="Q260" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="261" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D261" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G261" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="Q261" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="Q261" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="262" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D262" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G262" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="Q262" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="Q262" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="263" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D263" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G263" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="G263" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="Q263" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="264" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D264" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G264" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="G264" s="1" t="s">
+      <c r="Q264" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="Q264" s="1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="265" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D265" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G265" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="G265" s="1" t="s">
+      <c r="Q265" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="Q265" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="266" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D266" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G266" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="Q266" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="Q266" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="267" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D267" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G267" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="G267" s="1" t="s">
+      <c r="Q267" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="Q267" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="268" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D268" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G268" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="G268" s="1" t="s">
+      <c r="Q268" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="Q268" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="269" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D269" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G269" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="G269" s="1" t="s">
+      <c r="Q269" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="Q269" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="270" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D270" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G270" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="G270" s="1" t="s">
+      <c r="Q270" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="Q270" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="271" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D271" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G271" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G271" s="1" t="s">
+      <c r="Q271" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="Q271" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="272" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D272" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G272" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="G272" s="1" t="s">
+      <c r="Q272" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="Q272" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="273" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D273" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G273" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="G273" s="1" t="s">
+      <c r="Q273" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="Q273" s="1" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="274" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D274" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G274" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="G274" s="1" t="s">
+      <c r="Q274" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="Q274" s="1" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="275" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D275" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G275" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="G275" s="1" t="s">
+      <c r="Q275" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="Q275" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="276" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D276" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G276" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="G276" s="1" t="s">
+      <c r="Q276" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="Q276" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="277" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D277" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G277" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="G277" s="1" t="s">
+      <c r="Q277" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="Q277" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="278" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D278" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G278" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="G278" s="1" t="s">
+      <c r="Q278" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="Q278" s="1" t="s">
-        <v>798</v>
       </c>
     </row>
   </sheetData>

--- a/Tiếng Trung/Từ mới.xlsx
+++ b/Tiếng Trung/Từ mới.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C9F9C-D7FC-415F-A6D5-2FE39D5CE556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77475550-9CFA-4BA1-8AF6-E680DDD06584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="904">
   <si>
     <t>带领</t>
   </si>
@@ -820,9 +819,6 @@
     <t>手术</t>
   </si>
   <si>
-    <t>shou shu`</t>
-  </si>
-  <si>
     <t>thủ thuật</t>
   </si>
   <si>
@@ -964,9 +960,6 @@
     <t>zheng chang'</t>
   </si>
   <si>
-    <t>bình thường</t>
-  </si>
-  <si>
     <t>失掉</t>
   </si>
   <si>
@@ -1156,9 +1149,6 @@
     <t>zhi chi'</t>
   </si>
   <si>
-    <t>ung ho</t>
-  </si>
-  <si>
     <t>高速</t>
   </si>
   <si>
@@ -1174,9 +1164,6 @@
     <t>zheng qu?</t>
   </si>
   <si>
-    <t>Tranh thu?, phan dau, co gang</t>
-  </si>
-  <si>
     <t>出版社</t>
   </si>
   <si>
@@ -2432,6 +2419,330 @@
   </si>
   <si>
     <t>gần như, gần đủ, tương đối</t>
+  </si>
+  <si>
+    <t>quen thuộc, thông thạo, hiểu rõ(nhận mạnh sự trải nghiệm)</t>
+  </si>
+  <si>
+    <t>了解</t>
+  </si>
+  <si>
+    <t>liǎojiě</t>
+  </si>
+  <si>
+    <t>hiểu rõ, nắm rõ(nhấn mạnh sự hiểu biết không nhất thiết trải nghiệm)</t>
+  </si>
+  <si>
+    <t>shou? shu`</t>
+  </si>
+  <si>
+    <t>bình thường, thường ngày</t>
+  </si>
+  <si>
+    <t>ủng hộ, hỗ trợ</t>
+  </si>
+  <si>
+    <t>为此</t>
+  </si>
+  <si>
+    <t>wei` ci?</t>
+  </si>
+  <si>
+    <t>vì vậy</t>
+  </si>
+  <si>
+    <t>沙滩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sha tan </t>
+  </si>
+  <si>
+    <t>bãi biển, bãi cát</t>
+  </si>
+  <si>
+    <t>顶</t>
+  </si>
+  <si>
+    <t>ding?</t>
+  </si>
+  <si>
+    <t>đội, chống, đỡ bằng đầu</t>
+  </si>
+  <si>
+    <t>脚</t>
+  </si>
+  <si>
+    <t>jiao?</t>
+  </si>
+  <si>
+    <t>bàn chân</t>
+  </si>
+  <si>
+    <t>cước</t>
+  </si>
+  <si>
+    <t>腿</t>
+  </si>
+  <si>
+    <t>tui?</t>
+  </si>
+  <si>
+    <t>chân(từ đùi xuống)</t>
+  </si>
+  <si>
+    <t>踩</t>
+  </si>
+  <si>
+    <t>cai?</t>
+  </si>
+  <si>
+    <t>giẫm, đạp, đứng</t>
+  </si>
+  <si>
+    <t>沙</t>
+  </si>
+  <si>
+    <t>滩</t>
+  </si>
+  <si>
+    <t>sha</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>cát</t>
+  </si>
+  <si>
+    <t>bãi</t>
+  </si>
+  <si>
+    <t>细</t>
+  </si>
+  <si>
+    <t>Tế</t>
+  </si>
+  <si>
+    <t>mịn, nhuyễn(hạt)</t>
+  </si>
+  <si>
+    <t>吹</t>
+  </si>
+  <si>
+    <t>chui</t>
+  </si>
+  <si>
+    <t>Xuy</t>
+  </si>
+  <si>
+    <t>thổi, hà hơi</t>
+  </si>
+  <si>
+    <t>享受</t>
+  </si>
+  <si>
+    <t>xiang? Shou</t>
+  </si>
+  <si>
+    <t>hưởng thụ, tận hưởng</t>
+  </si>
+  <si>
+    <t>惬意</t>
+  </si>
+  <si>
+    <t>qie` yi`</t>
+  </si>
+  <si>
+    <t>mãn nguyện, thoải mái, hài lòng</t>
+  </si>
+  <si>
+    <t>各</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ge` </t>
+  </si>
+  <si>
+    <t>các</t>
+  </si>
+  <si>
+    <t>các, mỗi</t>
+  </si>
+  <si>
+    <t>穿</t>
+  </si>
+  <si>
+    <t>chuan</t>
+  </si>
+  <si>
+    <t>mặc, đi, mang, đeo(tất, giày), chọc, xuyên, dùi/xỏ, xiên, xâu</t>
+  </si>
+  <si>
+    <t>带</t>
+  </si>
+  <si>
+    <t>dai`</t>
+  </si>
+  <si>
+    <t>挂</t>
+  </si>
+  <si>
+    <t>gua`</t>
+  </si>
+  <si>
+    <t>treo, móc, cúp tắt(điện thoại), nối máy(điện thoại), trượt môn, ghi tên, đăng kí</t>
+  </si>
+  <si>
+    <t>戴</t>
+  </si>
+  <si>
+    <t>mang, đeo(túi xách), dẫn, dắt, nuôi dưỡng, chăm sóc</t>
+  </si>
+  <si>
+    <t>đội, đeo(mũ, kính, tai nghe, găng tay)</t>
+  </si>
+  <si>
+    <t>晒</t>
+  </si>
+  <si>
+    <t>shai`</t>
+  </si>
+  <si>
+    <t>sái</t>
+  </si>
+  <si>
+    <t>Đái</t>
+  </si>
+  <si>
+    <t>quải</t>
+  </si>
+  <si>
+    <t>Đái, đới</t>
+  </si>
+  <si>
+    <t>Xuyên</t>
+  </si>
+  <si>
+    <t>nắng chiếu, chiếu, rọi, không quan tâm, không chú ý, khoe mẽ</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>tong'</t>
+  </si>
+  <si>
+    <t>đồng</t>
+  </si>
+  <si>
+    <t>胳膊</t>
+  </si>
+  <si>
+    <t>ge bo</t>
+  </si>
+  <si>
+    <t>cánh tay</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>pi' fu</t>
+  </si>
+  <si>
+    <t>bì phu</t>
+  </si>
+  <si>
+    <t>da, da dẻ, skin, trang phục trò chơi</t>
+  </si>
+  <si>
+    <t>争夺</t>
+  </si>
+  <si>
+    <t>zheng duo'</t>
+  </si>
+  <si>
+    <t>Tranh đoạt</t>
+  </si>
+  <si>
+    <t>tranh giành, tranh đoạt, giành giật</t>
+  </si>
+  <si>
+    <t>Tranh thủ, cố gắng, phấn đấu, tranh đấu</t>
+  </si>
+  <si>
+    <t>满身</t>
+  </si>
+  <si>
+    <t>man? Shen</t>
+  </si>
+  <si>
+    <t>满</t>
+  </si>
+  <si>
+    <t>man?</t>
+  </si>
+  <si>
+    <t>mãn</t>
+  </si>
+  <si>
+    <t>đầy, chật, kín, tự mãn</t>
+  </si>
+  <si>
+    <t>汗水</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> han` shui?</t>
+  </si>
+  <si>
+    <t>hãn thủy</t>
+  </si>
+  <si>
+    <t>mồ hôi</t>
+  </si>
+  <si>
+    <t>衬托</t>
+  </si>
+  <si>
+    <t>chen` tuo</t>
+  </si>
+  <si>
+    <t>làm nổi bật lên, tôn lên, làm nền, nền</t>
+  </si>
+  <si>
+    <t>照射</t>
+  </si>
+  <si>
+    <t>zhao` she`</t>
+  </si>
+  <si>
+    <t>chiếu xạ</t>
+  </si>
+  <si>
+    <t>动感</t>
+  </si>
+  <si>
+    <t>dong` gan?</t>
+  </si>
+  <si>
+    <t>sống động</t>
+  </si>
+  <si>
+    <t>活力</t>
+  </si>
+  <si>
+    <t>huo' li`</t>
+  </si>
+  <si>
+    <t>hoạt lực</t>
+  </si>
+  <si>
+    <t>sức sống</t>
+  </si>
+  <si>
+    <t>toàn thân</t>
+  </si>
+  <si>
+    <t>chiếu, rọi(văn viết, khoa học kĩ thuật)</t>
   </si>
 </sst>
 </file>
@@ -2756,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W278"/>
+  <dimension ref="A2:W354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q146" sqref="Q146"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L198" sqref="L198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30.6" x14ac:dyDescent="0.55000000000000004"/>
@@ -2859,2881 +3170,3330 @@
       <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Q10" s="1" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>797</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>798</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>106</v>
+        <v>799</v>
       </c>
     </row>
     <row r="12" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D46" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D53" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>799</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>142</v>
+        <v>795</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D60" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D62" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q65" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D65" s="1" t="s">
+    <row r="66" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" s="1" t="s">
+    <row r="67" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="Q67" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D67" s="1" t="s">
+    <row r="68" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="Q68" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D68" s="1" t="s">
+    <row r="69" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="Q69" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D69" s="1" t="s">
+    <row r="70" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="Q70" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D70" s="1" t="s">
+    <row r="71" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D71" s="1" t="s">
+    <row r="72" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="Q72" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D72" s="1" t="s">
+    <row r="73" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="Q73" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D73" s="1" t="s">
+    <row r="74" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="Q74" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D74" s="1" t="s">
+    <row r="75" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="Q75" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D75" s="1" t="s">
+    <row r="76" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="Q76" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D76" s="1" t="s">
+    <row r="77" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="Q77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="W76" s="1" t="s">
+      <c r="W77" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D77" s="1" t="s">
+    <row r="78" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="Q78" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D78" s="1" t="s">
+    <row r="79" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="Q79" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D79" s="1" t="s">
+    <row r="80" spans="4:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="Q80" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D81" s="1" t="s">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="Q81" s="1" t="s">
+      <c r="Q82" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D82" s="1" t="s">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q82" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D83" s="1" t="s">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D84" s="1" t="s">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Q84" s="1" t="s">
+      <c r="Q85" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D85" s="1" t="s">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Q85" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D86" s="1" t="s">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q86" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D87" s="1" t="s">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q87" s="1" t="s">
+      <c r="Q88" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D88" s="1" t="s">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="Q88" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D89" s="1" t="s">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Q89" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D90" s="1" t="s">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="Q90" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D91" s="1" t="s">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="Q91" s="1" t="s">
+      <c r="Q92" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D92" s="1" t="s">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="Q92" s="1" t="s">
+      <c r="Q93" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D93" s="1" t="s">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Q93" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D94" s="1" t="s">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="Q94" s="1" t="s">
+      <c r="Q95" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D95" s="1" t="s">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G96" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q96" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D96" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D98" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D99" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D101" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D103" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D104" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D105" s="1" t="s">
-        <v>317</v>
+        <v>286</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D106" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D107" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D108" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D109" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D110" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D111" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D112" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D113" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>313</v>
+        <v>801</v>
       </c>
     </row>
     <row r="114" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D114" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D115" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D116" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D117" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D118" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D119" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D120" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D121" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D122" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D123" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G124" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q124" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="Q124" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="125" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D125" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D126" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D127" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D128" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D129" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D130" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D131" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D132" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D133" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D134" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>377</v>
+        <v>802</v>
       </c>
     </row>
     <row r="135" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D135" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D136" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>383</v>
+        <v>878</v>
       </c>
     </row>
     <row r="137" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D137" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D138" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="139" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D139" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D140" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D141" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D142" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D143" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D144" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D145" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="146" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D146" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D147" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D148" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D149" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D150" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D151" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D152" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D153" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D154" s="1" t="s">
-        <v>433</v>
+        <v>803</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>434</v>
+        <v>804</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>435</v>
+        <v>805</v>
       </c>
     </row>
     <row r="155" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D155" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D156" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D157" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D158" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D159" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D160" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="161" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D161" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="162" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D162" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="163" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D163" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q163" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G160" s="1" t="s">
+    </row>
+    <row r="164" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="Q160" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D161" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="Q164" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="Q161" s="1" t="s">
+    </row>
+    <row r="165" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D165" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D162" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="Q165" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="Q162" s="1" t="s">
+    </row>
+    <row r="166" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D166" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D163" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="Q166" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="Q163" s="1" t="s">
+    </row>
+    <row r="167" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D167" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D164" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="Q167" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="Q164" s="1" t="s">
+    </row>
+    <row r="168" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D168" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D165" s="1" t="s">
+      <c r="G168" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q168" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q165" s="1" t="s">
+    </row>
+    <row r="169" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D169" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D166" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="Q169" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D170" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="Q166" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D167" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="Q170" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="Q167" s="1" t="s">
+    </row>
+    <row r="171" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D171" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D168" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="Q171" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="Q168" s="1" t="s">
+    </row>
+    <row r="172" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D172" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D169" s="1" t="s">
+      <c r="G172" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q172" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q169" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D170" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q170" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D172" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q172" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="173" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D173" s="1" t="s">
-        <v>486</v>
+        <v>822</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>487</v>
+        <v>824</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="174" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D174" s="1" t="s">
-        <v>489</v>
+        <v>823</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>490</v>
+        <v>825</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="175" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D175" s="1" t="s">
-        <v>492</v>
+        <v>806</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="176" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D176" s="1" t="s">
-        <v>494</v>
+        <v>809</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>495</v>
+        <v>810</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>499</v>
+        <v>811</v>
       </c>
     </row>
     <row r="177" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D177" s="1" t="s">
-        <v>496</v>
+        <v>812</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>497</v>
+        <v>813</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>498</v>
+        <v>814</v>
       </c>
     </row>
     <row r="178" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D178" s="1" t="s">
-        <v>500</v>
+        <v>816</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>501</v>
+        <v>817</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>502</v>
+        <v>818</v>
       </c>
     </row>
     <row r="179" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D179" s="1" t="s">
-        <v>503</v>
+        <v>819</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>504</v>
+        <v>820</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>505</v>
+        <v>821</v>
       </c>
     </row>
     <row r="180" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D180" s="1" t="s">
-        <v>506</v>
+        <v>828</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>507</v>
+        <v>579</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>508</v>
+        <v>830</v>
       </c>
     </row>
     <row r="181" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D181" s="1" t="s">
-        <v>509</v>
+        <v>831</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>510</v>
+        <v>832</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>511</v>
+        <v>834</v>
       </c>
     </row>
     <row r="182" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D182" s="1" t="s">
-        <v>512</v>
+        <v>835</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>513</v>
+        <v>836</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>514</v>
+        <v>837</v>
       </c>
     </row>
     <row r="183" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D183" s="1" t="s">
-        <v>515</v>
+        <v>838</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>516</v>
+        <v>839</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>517</v>
+        <v>840</v>
       </c>
     </row>
     <row r="184" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D184" s="1" t="s">
-        <v>518</v>
+        <v>841</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>519</v>
+        <v>842</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>520</v>
+        <v>844</v>
       </c>
     </row>
     <row r="185" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D185" s="1" t="s">
-        <v>521</v>
+        <v>845</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>522</v>
+        <v>846</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>523</v>
+        <v>847</v>
       </c>
     </row>
     <row r="186" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D186" s="1" t="s">
-        <v>524</v>
+        <v>848</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>525</v>
+        <v>849</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>861</v>
       </c>
       <c r="Q186" s="1" t="s">
-        <v>526</v>
+        <v>854</v>
       </c>
     </row>
     <row r="187" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D187" s="1" t="s">
-        <v>527</v>
+        <v>850</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>528</v>
+        <v>851</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>860</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>529</v>
+        <v>852</v>
       </c>
     </row>
     <row r="188" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D188" s="1" t="s">
-        <v>530</v>
+        <v>853</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>531</v>
+        <v>849</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="Q188" s="1" t="s">
-        <v>532</v>
+        <v>855</v>
       </c>
     </row>
     <row r="189" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D189" s="1" t="s">
-        <v>533</v>
+        <v>856</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>534</v>
+        <v>857</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>535</v>
+        <v>863</v>
       </c>
     </row>
     <row r="190" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D190" s="1" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>537</v>
+        <v>865</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="Q190" s="1" t="s">
-        <v>538</v>
+        <v>866</v>
       </c>
     </row>
     <row r="191" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D191" s="1" t="s">
-        <v>539</v>
+        <v>867</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>540</v>
+        <v>868</v>
       </c>
       <c r="Q191" s="1" t="s">
-        <v>541</v>
+        <v>869</v>
       </c>
     </row>
     <row r="192" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D192" s="1" t="s">
-        <v>542</v>
+        <v>870</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>543</v>
+        <v>871</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>872</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>544</v>
+        <v>873</v>
       </c>
     </row>
     <row r="193" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D193" s="1" t="s">
-        <v>545</v>
+        <v>874</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>546</v>
+        <v>875</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>547</v>
+        <v>877</v>
       </c>
     </row>
     <row r="194" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D194" s="1" t="s">
-        <v>548</v>
+        <v>881</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>549</v>
+        <v>882</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="Q194" s="1" t="s">
-        <v>550</v>
+        <v>884</v>
       </c>
     </row>
     <row r="195" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D195" s="1" t="s">
-        <v>551</v>
+        <v>879</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>552</v>
+        <v>880</v>
       </c>
       <c r="Q195" s="1" t="s">
-        <v>553</v>
+        <v>902</v>
       </c>
     </row>
     <row r="196" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D196" s="1" t="s">
-        <v>554</v>
+        <v>885</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>555</v>
+        <v>886</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>887</v>
       </c>
       <c r="Q196" s="1" t="s">
-        <v>556</v>
+        <v>888</v>
       </c>
     </row>
     <row r="197" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D197" s="1" t="s">
-        <v>557</v>
+        <v>889</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>558</v>
+        <v>890</v>
       </c>
       <c r="Q197" s="1" t="s">
-        <v>559</v>
+        <v>891</v>
       </c>
     </row>
     <row r="198" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D198" s="1" t="s">
-        <v>560</v>
+        <v>892</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="Q198" s="1" t="s">
-        <v>561</v>
+        <v>903</v>
       </c>
     </row>
     <row r="199" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D199" s="1" t="s">
-        <v>562</v>
+        <v>895</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>563</v>
+        <v>896</v>
       </c>
       <c r="Q199" s="1" t="s">
-        <v>573</v>
+        <v>897</v>
       </c>
     </row>
     <row r="200" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D200" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G214" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G215" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G216" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q217" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G218" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G219" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G220" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G221" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G222" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G223" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G224" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="225" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G225" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="226" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G226" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="227" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G227" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="228" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G228" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="229" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G229" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="230" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G230" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="231" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G231" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="232" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G232" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="233" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G233" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="234" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G234" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="235" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G235" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="236" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G236" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="237" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G237" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="238" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G238" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="239" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G239" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="240" spans="7:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q240" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="241" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G241" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="242" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G242" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="243" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G243" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="Q243" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="Q200" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="201" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D201" s="1" t="s">
+    </row>
+    <row r="244" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G244" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="Q244" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="Q201" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="202" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D202" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G202" s="1" t="s">
+    </row>
+    <row r="245" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G245" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="Q202" s="1" t="s">
+      <c r="Q245" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="203" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D203" s="1" t="s">
+    <row r="246" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G246" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="Q246" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="Q203" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="204" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D204" s="1" t="s">
+    </row>
+    <row r="247" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G247" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="Q247" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="Q204" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="205" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D205" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q205" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="206" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D206" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q206" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="207" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D207" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q207" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="208" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D208" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q208" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="209" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D209" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q209" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="210" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D210" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q210" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="211" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D211" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q211" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="212" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D212" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q212" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="213" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D213" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q213" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="214" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D214" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q214" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="215" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D215" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q215" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="216" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D216" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q216" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="217" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D217" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q217" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="218" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D218" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q218" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="219" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D219" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q219" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="220" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D220" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q220" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="221" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D221" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q221" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="222" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D222" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q222" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="223" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D223" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q223" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="224" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D224" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q224" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="225" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D225" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q225" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="226" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D226" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q226" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="227" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D227" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q227" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="228" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D228" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q228" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="229" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D229" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q229" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="230" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D230" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q230" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="231" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D231" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q231" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="232" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D232" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q232" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="233" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D233" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q233" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="234" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D234" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q234" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="235" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D235" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q235" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="236" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D236" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q236" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="237" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D237" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q237" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="238" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D238" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q238" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="239" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D239" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q239" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="240" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D240" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q240" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="241" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D241" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q241" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="242" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D242" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q242" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="243" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D243" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q243" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="244" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D244" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q244" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="245" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D245" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q245" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="246" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D246" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q246" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="247" spans="4:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D247" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q247" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="248" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D248" s="1" t="s">
-        <v>706</v>
+        <v>479</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>707</v>
+        <v>579</v>
       </c>
       <c r="Q248" s="1" t="s">
-        <v>708</v>
+        <v>580</v>
       </c>
     </row>
     <row r="249" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D249" s="1" t="s">
-        <v>709</v>
+        <v>482</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>710</v>
+        <v>582</v>
       </c>
       <c r="Q249" s="1" t="s">
-        <v>711</v>
+        <v>583</v>
       </c>
     </row>
     <row r="250" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D250" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>713</v>
+        <v>485</v>
       </c>
       <c r="Q250" s="1" t="s">
-        <v>714</v>
+        <v>585</v>
       </c>
     </row>
     <row r="251" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D251" s="1" t="s">
-        <v>715</v>
+        <v>488</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>716</v>
+        <v>587</v>
       </c>
       <c r="Q251" s="1" t="s">
-        <v>717</v>
+        <v>588</v>
       </c>
     </row>
     <row r="252" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D252" s="1" t="s">
-        <v>718</v>
+        <v>490</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>719</v>
+        <v>590</v>
       </c>
       <c r="Q252" s="1" t="s">
-        <v>720</v>
+        <v>591</v>
       </c>
     </row>
     <row r="253" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D253" s="1" t="s">
-        <v>722</v>
+        <v>492</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>721</v>
+        <v>593</v>
       </c>
       <c r="Q253" s="1" t="s">
-        <v>723</v>
+        <v>594</v>
       </c>
     </row>
     <row r="254" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D254" s="1" t="s">
-        <v>724</v>
+        <v>496</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>725</v>
+        <v>596</v>
       </c>
       <c r="Q254" s="1" t="s">
-        <v>726</v>
+        <v>597</v>
       </c>
     </row>
     <row r="255" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D255" s="1" t="s">
-        <v>727</v>
+        <v>499</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>728</v>
+        <v>599</v>
       </c>
       <c r="Q255" s="1" t="s">
-        <v>729</v>
+        <v>600</v>
       </c>
     </row>
     <row r="256" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D256" s="1" t="s">
-        <v>730</v>
+        <v>502</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>731</v>
+        <v>602</v>
       </c>
       <c r="Q256" s="1" t="s">
-        <v>732</v>
+        <v>603</v>
       </c>
     </row>
     <row r="257" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D257" s="1" t="s">
-        <v>733</v>
+        <v>505</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>734</v>
+        <v>605</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>735</v>
+        <v>606</v>
       </c>
     </row>
     <row r="258" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D258" s="1" t="s">
-        <v>736</v>
+        <v>508</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>737</v>
+        <v>608</v>
       </c>
       <c r="Q258" s="1" t="s">
-        <v>738</v>
+        <v>609</v>
       </c>
     </row>
     <row r="259" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D259" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>740</v>
+        <v>511</v>
       </c>
       <c r="Q259" s="1" t="s">
-        <v>741</v>
+        <v>611</v>
       </c>
     </row>
     <row r="260" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D260" s="1" t="s">
-        <v>742</v>
+        <v>514</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>743</v>
+        <v>613</v>
       </c>
       <c r="Q260" s="1" t="s">
-        <v>744</v>
+        <v>614</v>
       </c>
     </row>
     <row r="261" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D261" s="1" t="s">
-        <v>745</v>
+        <v>517</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>746</v>
+        <v>616</v>
       </c>
       <c r="Q261" s="1" t="s">
-        <v>747</v>
+        <v>617</v>
       </c>
     </row>
     <row r="262" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D262" s="1" t="s">
-        <v>748</v>
+        <v>520</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="Q262" s="1" t="s">
-        <v>750</v>
+        <v>620</v>
       </c>
     </row>
     <row r="263" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D263" s="1" t="s">
-        <v>751</v>
+        <v>523</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>752</v>
+        <v>622</v>
       </c>
       <c r="Q263" s="1" t="s">
-        <v>798</v>
+        <v>623</v>
       </c>
     </row>
     <row r="264" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D264" s="1" t="s">
-        <v>753</v>
+        <v>526</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>754</v>
+        <v>625</v>
       </c>
       <c r="Q264" s="1" t="s">
-        <v>755</v>
+        <v>626</v>
       </c>
     </row>
     <row r="265" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D265" s="1" t="s">
-        <v>756</v>
+        <v>529</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>757</v>
+        <v>628</v>
       </c>
       <c r="Q265" s="1" t="s">
-        <v>758</v>
+        <v>629</v>
       </c>
     </row>
     <row r="266" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D266" s="1" t="s">
-        <v>759</v>
+        <v>532</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>760</v>
+        <v>631</v>
       </c>
       <c r="Q266" s="1" t="s">
-        <v>761</v>
+        <v>632</v>
       </c>
     </row>
     <row r="267" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D267" s="1" t="s">
-        <v>762</v>
+        <v>535</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>763</v>
+        <v>634</v>
       </c>
       <c r="Q267" s="1" t="s">
-        <v>764</v>
+        <v>635</v>
       </c>
     </row>
     <row r="268" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D268" s="1" t="s">
-        <v>765</v>
+        <v>538</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>766</v>
+        <v>637</v>
       </c>
       <c r="Q268" s="1" t="s">
-        <v>767</v>
+        <v>638</v>
       </c>
     </row>
     <row r="269" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D269" s="1" t="s">
-        <v>768</v>
+        <v>541</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>769</v>
+        <v>641</v>
       </c>
       <c r="Q269" s="1" t="s">
-        <v>770</v>
+        <v>640</v>
       </c>
     </row>
     <row r="270" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D270" s="1" t="s">
-        <v>771</v>
+        <v>544</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>772</v>
+        <v>643</v>
       </c>
       <c r="Q270" s="1" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
     </row>
     <row r="271" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D271" s="1" t="s">
-        <v>774</v>
+        <v>547</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>775</v>
+        <v>646</v>
       </c>
       <c r="Q271" s="1" t="s">
-        <v>776</v>
+        <v>647</v>
       </c>
     </row>
     <row r="272" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D272" s="1" t="s">
-        <v>777</v>
+        <v>550</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>778</v>
+        <v>649</v>
       </c>
       <c r="Q272" s="1" t="s">
-        <v>779</v>
+        <v>650</v>
       </c>
     </row>
     <row r="273" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D273" s="1" t="s">
-        <v>780</v>
+        <v>553</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>781</v>
+        <v>652</v>
       </c>
       <c r="Q273" s="1" t="s">
-        <v>782</v>
+        <v>655</v>
       </c>
     </row>
     <row r="274" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D274" s="1" t="s">
-        <v>783</v>
+        <v>556</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>784</v>
+        <v>654</v>
       </c>
       <c r="Q274" s="1" t="s">
-        <v>785</v>
+        <v>656</v>
       </c>
     </row>
     <row r="275" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D275" s="1" t="s">
-        <v>786</v>
+        <v>558</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>787</v>
+        <v>658</v>
       </c>
       <c r="Q275" s="1" t="s">
-        <v>788</v>
+        <v>659</v>
       </c>
     </row>
     <row r="276" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D276" s="1" t="s">
-        <v>789</v>
+        <v>560</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>790</v>
+        <v>661</v>
       </c>
       <c r="Q276" s="1" t="s">
-        <v>791</v>
+        <v>662</v>
       </c>
     </row>
     <row r="277" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D277" s="1" t="s">
-        <v>792</v>
+        <v>563</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>793</v>
+        <v>664</v>
       </c>
       <c r="Q277" s="1" t="s">
-        <v>794</v>
+        <v>665</v>
       </c>
     </row>
     <row r="278" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D278" s="1" t="s">
-        <v>795</v>
+        <v>566</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>796</v>
+        <v>667</v>
       </c>
       <c r="Q278" s="1" t="s">
-        <v>797</v>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="279" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D279" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q279" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="280" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D280" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q280" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="281" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D281" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q281" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="282" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D282" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q282" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="283" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D283" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="284" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D284" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="285" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D285" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q285" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="286" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D286" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="287" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D287" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="288" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D288" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="289" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D289" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="290" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D290" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="291" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D291" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="292" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D292" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="293" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D293" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q293" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="294" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D294" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="295" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D295" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q295" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="296" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D296" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q296" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="297" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D297" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q297" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="298" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D298" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q298" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="299" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D299" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q299" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="300" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D300" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q300" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="301" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D301" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q301" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="302" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D302" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q302" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="303" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D303" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q303" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="304" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D304" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q304" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="305" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D305" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q305" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="306" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D306" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q306" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="307" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D307" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q307" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="308" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D308" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q308" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="309" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D309" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q309" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="310" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D310" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q310" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="311" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D311" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q311" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="312" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D312" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q312" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="313" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D313" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q313" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="314" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D314" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q314" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="315" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D315" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q315" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="316" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D316" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q316" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="317" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D317" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q317" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="318" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D318" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q318" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="319" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D319" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q319" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="320" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D320" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q320" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D321" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D322" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D323" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D324" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D325" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D326" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D327" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D328" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D329" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D330" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D331" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D332" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D333" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D334" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D335" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D336" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D337" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D338" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D339" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D340" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D341" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D342" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D343" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D344" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D345" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D346" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D347" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D348" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D349" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D350" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D351" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D352" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D353" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D354" s="1" t="s">
+        <v>791</v>
       </c>
     </row>
   </sheetData>
